--- a/docs/ポーカー改修テーブル定義書.xlsx
+++ b/docs/ポーカー改修テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\勉強用設計書フォルダ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFFD108-4AA8-4182-A9C3-902CB30EA26B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF699BFD-B8B7-4250-B4EC-F35757F7F07C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10452" activeTab="4" xr2:uid="{DB7F8F3E-D710-40FD-B993-F91A216B34D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -55,7 +55,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2019/01/14</t>
+    <t>2019/01/19</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -166,6 +166,12 @@
     <t>ユニーク</t>
   </si>
   <si>
+    <t>poker_user_info_IX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_name </t>
+  </si>
+  <si>
     <t>リレーションシップ情報(FK側)</t>
   </si>
   <si>
@@ -187,7 +193,21 @@
     <t>参照元カラムリスト</t>
   </si>
   <si>
+    <t>fk_user_id</t>
+  </si>
+  <si>
     <t>@DECIMAL</t>
+  </si>
+  <si>
+    <t>poker_user_id_seq1というシーケンスを使用</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>poker_user_id_seq2というシーケンスを使用</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -314,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -635,6 +655,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -717,19 +748,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -759,6 +777,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,10 +948,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1">
@@ -916,15 +984,15 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -955,40 +1023,52 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,13 +1385,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FFBADE-71D5-4B43-834D-747AB19CA6B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCC840A-DD2F-4190-91BC-46081CA1A07C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1835,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73515B5-46D8-4D2F-A3DA-2F65CE9E6C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D18638B-3DD1-4761-8945-3BDD390A5311}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1893,7 +1973,7 @@
       <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="27"/>
@@ -1902,8 +1982,8 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'ポーカーユーザー情報'!A1" display="'ポーカーユーザー情報'!A1" xr:uid="{22C69AED-4616-46AC-A85D-E4A3DF7475A3}"/>
-    <hyperlink ref="C4" location="'所持金'!A1" display="'所持金'!A1" xr:uid="{C80264ED-5B0E-45DC-8579-E1B7CFFAE4FF}"/>
+    <hyperlink ref="C3" location="'ポーカーユーザー情報'!A1" display="'ポーカーユーザー情報'!A1" xr:uid="{DCD9B71D-C8EB-44A8-968E-D22CA170C3EA}"/>
+    <hyperlink ref="C4" location="'所持金'!A1" display="'所持金'!A1" xr:uid="{0D3EEE50-F117-46B8-8B25-9EF0E9D79C06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1915,13 +1995,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC091AF-C252-409C-9E50-4795F4304D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6C1B60-DC83-404C-AF7F-5503C438FE06}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1962,13 +2044,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC81A8-202B-4A2E-BD87-EFCFD62E0FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B6D9D9-13CE-4039-8686-325C61B3EC76}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1976,7 +2060,7 @@
     <col min="2" max="2" width="16.69921875" style="35" customWidth="1"/>
     <col min="3" max="4" width="14.69921875" style="35" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="28.69921875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="35" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="23"/>
   </cols>
   <sheetData>
@@ -2137,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2191,11 +2275,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -2203,88 +2287,106 @@
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="64"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="24" t="s">
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="49">
+        <v>1</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="36" t="s">
+      <c r="C20" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="62" t="s">
+      <c r="B23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="38" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="69" t="s">
+      <c r="C26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="49">
+      <c r="D26" s="64"/>
+      <c r="E26" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="49">
         <v>1</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="67" t="s">
+      <c r="B27" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="67" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="51" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="51" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2298,7 +2400,7 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -2307,13 +2409,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CBA749-468E-475C-BDAA-D4B45446ABE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4B0BEB-D058-4990-8B52-B097BEF95595}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2321,7 +2425,7 @@
     <col min="2" max="2" width="16.69921875" style="35" customWidth="1"/>
     <col min="3" max="4" width="14.69921875" style="35" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="28.69921875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="33.69921875" style="35" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="23"/>
   </cols>
   <sheetData>
@@ -2473,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>34</v>
@@ -2482,7 +2586,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -2496,7 +2600,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>38</v>
@@ -2520,11 +2624,11 @@
       <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="37" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2638,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2542,18 +2646,18 @@
         <v>10</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="72"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="75"/>
       <c r="G21" s="55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2561,23 +2665,23 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2585,18 +2689,18 @@
         <v>10</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="66"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="71"/>
       <c r="G25" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2724,7 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
